--- a/Jogos_do_Dia/2024-05-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-05-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -223,21 +223,21 @@
     <t>Shanghai Shenhua</t>
   </si>
   <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
     <t>Südtirol</t>
   </si>
   <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Catanzaro</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
     <t>IMT Novi Beograd</t>
   </si>
   <si>
@@ -247,21 +247,21 @@
     <t>Novi Pazar</t>
   </si>
   <si>
+    <t>ENPPI</t>
+  </si>
+  <si>
+    <t>Tallinna Kalev</t>
+  </si>
+  <si>
     <t>Ismaily SC</t>
   </si>
   <si>
-    <t>ENPPI</t>
-  </si>
-  <si>
-    <t>Tallinna Kalev</t>
+    <t>Reggiana</t>
   </si>
   <si>
     <t>Lecco</t>
   </si>
   <si>
-    <t>Reggiana</t>
-  </si>
-  <si>
     <t>Bari 1908</t>
   </si>
   <si>
@@ -301,21 +301,21 @@
     <t>Shijiazhuang Ever Bright</t>
   </si>
   <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
     <t>Ternana</t>
   </si>
   <si>
-    <t>Palermo</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
     <t>Radnik Surdulica</t>
   </si>
   <si>
@@ -325,19 +325,19 @@
     <t>Javor Ivanjica</t>
   </si>
   <si>
+    <t>Pyramids FC</t>
+  </si>
+  <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
   </si>
   <si>
-    <t>Pyramids FC</t>
-  </si>
-  <si>
-    <t>Tallinna FC Flora</t>
+    <t>Modena</t>
   </si>
   <si>
     <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Modena</t>
   </si>
   <si>
     <t>Parma</t>
@@ -996,61 +996,61 @@
         <v>86</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z3">
         <v>0.75</v>
@@ -1136,13 +1136,13 @@
         <v>2.93</v>
       </c>
       <c r="J4">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="K4">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="L4">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
         <v>1.46</v>
@@ -1163,10 +1163,10 @@
         <v>2.9</v>
       </c>
       <c r="S4">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U4">
         <v>1.87</v>
@@ -1199,43 +1199,43 @@
         <v>3.28</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1267,13 +1267,13 @@
         <v>3.5</v>
       </c>
       <c r="J5">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="K5">
-        <v>2.98</v>
+        <v>2.85</v>
       </c>
       <c r="L5">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="M5">
         <v>1.49</v>
@@ -1294,10 +1294,10 @@
         <v>2.76</v>
       </c>
       <c r="S5">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="T5">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U5">
         <v>1.91</v>
@@ -1330,43 +1330,43 @@
         <v>2.37</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1398,13 +1398,13 @@
         <v>3.35</v>
       </c>
       <c r="J6">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="K6">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="M6">
         <v>1.52</v>
@@ -1425,10 +1425,10 @@
         <v>2.54</v>
       </c>
       <c r="S6">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="T6">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U6">
         <v>2.03</v>
@@ -1461,43 +1461,43 @@
         <v>3.42</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1529,13 +1529,13 @@
         <v>2.1</v>
       </c>
       <c r="J7">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L7">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="M7">
         <v>1.3</v>
@@ -1556,10 +1556,10 @@
         <v>4.2</v>
       </c>
       <c r="S7">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="T7">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="U7">
         <v>1.75</v>
@@ -1663,10 +1663,10 @@
         <v>1.73</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="M8">
         <v>1.38</v>
@@ -1687,10 +1687,10 @@
         <v>3.68</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U8">
         <v>1.78</v>
@@ -1732,16 +1732,16 @@
         <v>3.16</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AL8">
         <v>2</v>
@@ -1750,16 +1750,16 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1782,61 +1782,61 @@
         <v>92</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Z9">
         <v>2.5</v>
@@ -1922,13 +1922,13 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="K10">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="M10">
         <v>1.33</v>
@@ -1949,10 +1949,10 @@
         <v>3.8</v>
       </c>
       <c r="S10">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="T10">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="U10">
         <v>1.57</v>
@@ -2053,13 +2053,13 @@
         <v>6.5</v>
       </c>
       <c r="J11">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="K11">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="L11">
-        <v>8.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="M11">
         <v>1.25</v>
@@ -2080,10 +2080,10 @@
         <v>4.75</v>
       </c>
       <c r="S11">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="T11">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -2175,115 +2175,115 @@
         <v>95</v>
       </c>
       <c r="G12">
-        <v>2.9</v>
+        <v>2.26</v>
       </c>
       <c r="H12">
+        <v>2.27</v>
+      </c>
+      <c r="I12">
+        <v>6.12</v>
+      </c>
+      <c r="J12">
+        <v>1.55</v>
+      </c>
+      <c r="K12">
+        <v>3.5</v>
+      </c>
+      <c r="L12">
+        <v>5.25</v>
+      </c>
+      <c r="M12">
+        <v>1.44</v>
+      </c>
+      <c r="N12">
+        <v>2.88</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>1.32</v>
+      </c>
+      <c r="R12">
+        <v>2.98</v>
+      </c>
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>3.8</v>
-      </c>
-      <c r="J12">
-        <v>2.17</v>
-      </c>
-      <c r="K12">
-        <v>3.05</v>
-      </c>
-      <c r="L12">
-        <v>3.15</v>
-      </c>
-      <c r="M12">
-        <v>1.48</v>
-      </c>
-      <c r="N12">
-        <v>2.5</v>
-      </c>
-      <c r="O12">
-        <v>1.08</v>
-      </c>
-      <c r="P12">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q12">
+      <c r="T12">
+        <v>1.7</v>
+      </c>
+      <c r="U12">
+        <v>2.02</v>
+      </c>
+      <c r="V12">
+        <v>1.74</v>
+      </c>
+      <c r="W12">
+        <v>1.14</v>
+      </c>
+      <c r="X12">
+        <v>1.22</v>
+      </c>
+      <c r="Y12">
+        <v>2.2</v>
+      </c>
+      <c r="Z12">
+        <v>2.18</v>
+      </c>
+      <c r="AA12">
+        <v>1.12</v>
+      </c>
+      <c r="AB12">
+        <v>1.39</v>
+      </c>
+      <c r="AC12">
         <v>1.41</v>
       </c>
-      <c r="R12">
-        <v>2.95</v>
-      </c>
-      <c r="S12">
-        <v>2.12</v>
-      </c>
-      <c r="T12">
-        <v>1.56</v>
-      </c>
-      <c r="U12">
-        <v>1.9</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>1.32</v>
-      </c>
-      <c r="X12">
-        <v>1.35</v>
-      </c>
-      <c r="Y12">
-        <v>1.62</v>
-      </c>
-      <c r="Z12">
-        <v>1.35</v>
-      </c>
-      <c r="AA12">
-        <v>1.06</v>
-      </c>
-      <c r="AB12">
-        <v>1.1</v>
-      </c>
-      <c r="AC12">
-        <v>1.38</v>
-      </c>
       <c r="AD12">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AE12">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="AF12">
         <v>8</v>
       </c>
       <c r="AG12">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AL12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AM12">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2306,115 +2306,115 @@
         <v>96</v>
       </c>
       <c r="G13">
-        <v>2.93</v>
+        <v>3.5</v>
       </c>
       <c r="H13">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="I13">
-        <v>3.71</v>
+        <v>2.7</v>
       </c>
       <c r="J13">
-        <v>2.21</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L13">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P13">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="Q13">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="R13">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="S13">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V13">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W13">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="X13">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Y13">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="Z13">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="AA13">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="AB13">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AC13">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AD13">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="AE13">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AF13">
         <v>8</v>
       </c>
       <c r="AG13">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO13">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2437,115 +2437,115 @@
         <v>97</v>
       </c>
       <c r="G14">
-        <v>2.26</v>
+        <v>3.29</v>
       </c>
       <c r="H14">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>6.12</v>
+        <v>4.14</v>
       </c>
       <c r="J14">
-        <v>1.57</v>
+        <v>2.35</v>
       </c>
       <c r="K14">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="L14">
-        <v>5.25</v>
+        <v>3.05</v>
       </c>
       <c r="M14">
+        <v>1.56</v>
+      </c>
+      <c r="N14">
+        <v>2.45</v>
+      </c>
+      <c r="O14">
+        <v>1.07</v>
+      </c>
+      <c r="P14">
+        <v>6.2</v>
+      </c>
+      <c r="Q14">
+        <v>1.5</v>
+      </c>
+      <c r="R14">
+        <v>2.35</v>
+      </c>
+      <c r="S14">
+        <v>2.6</v>
+      </c>
+      <c r="T14">
         <v>1.44</v>
       </c>
-      <c r="N14">
-        <v>2.88</v>
-      </c>
-      <c r="O14">
-        <v>1.03</v>
-      </c>
-      <c r="P14">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Q14">
-        <v>1.32</v>
-      </c>
-      <c r="R14">
-        <v>2.98</v>
-      </c>
-      <c r="S14">
-        <v>1.98</v>
-      </c>
-      <c r="T14">
-        <v>1.65</v>
-      </c>
       <c r="U14">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="V14">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="W14">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="X14">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Y14">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="Z14">
-        <v>2.18</v>
+        <v>1.18</v>
       </c>
       <c r="AA14">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AB14">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AC14">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AD14">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AE14">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AF14">
         <v>8</v>
       </c>
       <c r="AG14">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ14">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AK14">
-        <v>2.05</v>
+        <v>2.48</v>
       </c>
       <c r="AL14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AM14">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2568,115 +2568,115 @@
         <v>98</v>
       </c>
       <c r="G15">
+        <v>2.93</v>
+      </c>
+      <c r="H15">
+        <v>2.31</v>
+      </c>
+      <c r="I15">
+        <v>3.71</v>
+      </c>
+      <c r="J15">
+        <v>2.1</v>
+      </c>
+      <c r="K15">
+        <v>3.25</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>1.36</v>
+      </c>
+      <c r="N15">
+        <v>3.2</v>
+      </c>
+      <c r="O15">
+        <v>1.01</v>
+      </c>
+      <c r="P15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>1.24</v>
+      </c>
+      <c r="R15">
         <v>3.5</v>
       </c>
-      <c r="H15">
-        <v>2.25</v>
-      </c>
-      <c r="I15">
-        <v>2.7</v>
-      </c>
-      <c r="J15">
-        <v>2.84</v>
-      </c>
-      <c r="K15">
-        <v>3.35</v>
-      </c>
-      <c r="L15">
-        <v>2.17</v>
-      </c>
-      <c r="M15">
-        <v>1.33</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>1.04</v>
-      </c>
-      <c r="P15">
-        <v>14</v>
-      </c>
-      <c r="Q15">
-        <v>1.22</v>
-      </c>
-      <c r="R15">
-        <v>3.8</v>
-      </c>
       <c r="S15">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U15">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V15">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="W15">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="X15">
+        <v>1.28</v>
+      </c>
+      <c r="Y15">
+        <v>1.6</v>
+      </c>
+      <c r="Z15">
+        <v>1.18</v>
+      </c>
+      <c r="AA15">
+        <v>1.47</v>
+      </c>
+      <c r="AB15">
+        <v>1.5</v>
+      </c>
+      <c r="AC15">
         <v>1.3</v>
       </c>
-      <c r="Y15">
-        <v>1.35</v>
-      </c>
-      <c r="Z15">
-        <v>1.65</v>
-      </c>
-      <c r="AA15">
-        <v>1.65</v>
-      </c>
-      <c r="AB15">
-        <v>1.3</v>
-      </c>
-      <c r="AC15">
-        <v>1.38</v>
-      </c>
       <c r="AD15">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="AE15">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AF15">
         <v>8</v>
       </c>
       <c r="AG15">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL15">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="AM15">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2699,115 +2699,115 @@
         <v>99</v>
       </c>
       <c r="G16">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>4.14</v>
+        <v>3.8</v>
       </c>
       <c r="J16">
+        <v>2.1</v>
+      </c>
+      <c r="K16">
+        <v>2.9</v>
+      </c>
+      <c r="L16">
+        <v>3.35</v>
+      </c>
+      <c r="M16">
+        <v>1.48</v>
+      </c>
+      <c r="N16">
+        <v>2.5</v>
+      </c>
+      <c r="O16">
+        <v>1.08</v>
+      </c>
+      <c r="P16">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>1.41</v>
+      </c>
+      <c r="R16">
+        <v>2.95</v>
+      </c>
+      <c r="S16">
         <v>2.35</v>
       </c>
-      <c r="K16">
-        <v>2.94</v>
-      </c>
-      <c r="L16">
-        <v>3.05</v>
-      </c>
-      <c r="M16">
-        <v>1.56</v>
-      </c>
-      <c r="N16">
-        <v>2.45</v>
-      </c>
-      <c r="O16">
-        <v>1.07</v>
-      </c>
-      <c r="P16">
-        <v>6.2</v>
-      </c>
-      <c r="Q16">
-        <v>1.5</v>
-      </c>
-      <c r="R16">
-        <v>2.35</v>
-      </c>
-      <c r="S16">
-        <v>2.42</v>
-      </c>
       <c r="T16">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="U16">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
+        <v>1.32</v>
+      </c>
+      <c r="X16">
         <v>1.35</v>
       </c>
-      <c r="X16">
-        <v>1.3</v>
-      </c>
       <c r="Y16">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Z16">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AA16">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AB16">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="AC16">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AD16">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="AE16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AF16">
         <v>8</v>
       </c>
       <c r="AG16">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AM16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2830,61 +2830,61 @@
         <v>100</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Z17">
         <v>1.06</v>
@@ -2961,61 +2961,61 @@
         <v>101</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="Z18">
         <v>1.5</v>
@@ -3092,61 +3092,61 @@
         <v>102</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Z19">
         <v>1.5</v>
@@ -3226,117 +3226,117 @@
         <v>5.5</v>
       </c>
       <c r="H20">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I20">
+        <v>2.25</v>
+      </c>
+      <c r="J20">
+        <v>5.25</v>
+      </c>
+      <c r="K20">
+        <v>3.5</v>
+      </c>
+      <c r="L20">
+        <v>1.62</v>
+      </c>
+      <c r="M20">
+        <v>1.44</v>
+      </c>
+      <c r="N20">
+        <v>2.73</v>
+      </c>
+      <c r="O20">
+        <v>1.05</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>1.35</v>
+      </c>
+      <c r="R20">
+        <v>3.11</v>
+      </c>
+      <c r="S20">
+        <v>2.15</v>
+      </c>
+      <c r="T20">
+        <v>1.67</v>
+      </c>
+      <c r="U20">
         <v>2.1</v>
       </c>
-      <c r="J20">
-        <v>5.75</v>
-      </c>
-      <c r="K20">
-        <v>3.6</v>
-      </c>
-      <c r="L20">
-        <v>1.55</v>
-      </c>
-      <c r="M20">
-        <v>1.39</v>
-      </c>
-      <c r="N20">
-        <v>2.94</v>
-      </c>
-      <c r="O20">
-        <v>1.03</v>
-      </c>
-      <c r="P20">
-        <v>9</v>
-      </c>
-      <c r="Q20">
-        <v>1.3</v>
-      </c>
-      <c r="R20">
-        <v>3.43</v>
-      </c>
-      <c r="S20">
-        <v>1.95</v>
-      </c>
-      <c r="T20">
-        <v>1.85</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
       <c r="V20">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W20">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X20">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="Y20">
         <v>1.1</v>
       </c>
       <c r="Z20">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AA20">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AB20">
+        <v>1.17</v>
+      </c>
+      <c r="AC20">
+        <v>1.71</v>
+      </c>
+      <c r="AD20">
+        <v>2.88</v>
+      </c>
+      <c r="AE20">
+        <v>3.32</v>
+      </c>
+      <c r="AF20">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG20">
         <v>1.41</v>
       </c>
-      <c r="AC20">
-        <v>1.9</v>
-      </c>
-      <c r="AD20">
-        <v>3.31</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2">
         <v>45413</v>
@@ -3345,7 +3345,7 @@
         <v>57</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
@@ -3354,76 +3354,76 @@
         <v>104</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.75</v>
+        <v>4.27</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>4.19</v>
       </c>
       <c r="L21">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M21">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="U21">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0.8</v>
+      </c>
+      <c r="AA21">
+        <v>1.25</v>
+      </c>
+      <c r="AB21">
+        <v>1.38</v>
+      </c>
+      <c r="AC21">
         <v>1.62</v>
       </c>
-      <c r="W21">
-        <v>2.28</v>
-      </c>
-      <c r="X21">
-        <v>1.22</v>
-      </c>
-      <c r="Y21">
-        <v>1.1</v>
-      </c>
-      <c r="Z21">
-        <v>1.6</v>
-      </c>
-      <c r="AA21">
-        <v>2</v>
-      </c>
-      <c r="AB21">
-        <v>1.17</v>
-      </c>
-      <c r="AC21">
-        <v>1.77</v>
-      </c>
       <c r="AD21">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
         <v>45413</v>
@@ -3476,7 +3476,7 @@
         <v>57</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
@@ -3485,115 +3485,115 @@
         <v>105</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AA22">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AB22">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AC22">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3616,115 +3616,115 @@
         <v>106</v>
       </c>
       <c r="G23">
-        <v>4.52</v>
+        <v>3.45</v>
       </c>
       <c r="H23">
-        <v>2.29</v>
+        <v>1.9</v>
       </c>
       <c r="I23">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="J23">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L23">
-        <v>1.9</v>
+        <v>2.65</v>
       </c>
       <c r="M23">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="N23">
-        <v>3.09</v>
+        <v>2.35</v>
       </c>
       <c r="O23">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="P23">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="Q23">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="R23">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="S23">
-        <v>1.84</v>
+        <v>2.35</v>
       </c>
       <c r="T23">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="U23">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="W23">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
+        <v>1.3</v>
+      </c>
+      <c r="Y23">
+        <v>1.42</v>
+      </c>
+      <c r="Z23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA23">
+        <v>1.18</v>
+      </c>
+      <c r="AB23">
+        <v>1.3</v>
+      </c>
+      <c r="AC23">
+        <v>1.44</v>
+      </c>
+      <c r="AD23">
+        <v>2.74</v>
+      </c>
+      <c r="AE23">
+        <v>2.28</v>
+      </c>
+      <c r="AF23">
+        <v>8</v>
+      </c>
+      <c r="AG23">
+        <v>1.85</v>
+      </c>
+      <c r="AH23">
         <v>1.25</v>
       </c>
-      <c r="Y23">
-        <v>1.25</v>
-      </c>
-      <c r="Z23">
-        <v>0.82</v>
-      </c>
-      <c r="AA23">
-        <v>1.53</v>
-      </c>
-      <c r="AB23">
-        <v>1.44</v>
-      </c>
-      <c r="AC23">
-        <v>1.12</v>
-      </c>
-      <c r="AD23">
-        <v>2.56</v>
-      </c>
-      <c r="AE23">
-        <v>2.2</v>
-      </c>
-      <c r="AF23">
-        <v>7.5</v>
-      </c>
-      <c r="AG23">
-        <v>1.91</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ23">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="AK23">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3747,115 +3747,115 @@
         <v>107</v>
       </c>
       <c r="G24">
-        <v>3.45</v>
+        <v>4.52</v>
       </c>
       <c r="H24">
-        <v>1.9</v>
+        <v>2.29</v>
       </c>
       <c r="I24">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="J24">
-        <v>2.69</v>
+        <v>3.9</v>
       </c>
       <c r="K24">
-        <v>2.89</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="M24">
+        <v>1.39</v>
+      </c>
+      <c r="N24">
+        <v>3.09</v>
+      </c>
+      <c r="O24">
+        <v>1.02</v>
+      </c>
+      <c r="P24">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>1.27</v>
+      </c>
+      <c r="R24">
+        <v>3.28</v>
+      </c>
+      <c r="S24">
+        <v>1.85</v>
+      </c>
+      <c r="T24">
+        <v>1.85</v>
+      </c>
+      <c r="U24">
+        <v>1.78</v>
+      </c>
+      <c r="V24">
+        <v>1.97</v>
+      </c>
+      <c r="W24">
+        <v>1.77</v>
+      </c>
+      <c r="X24">
+        <v>1.25</v>
+      </c>
+      <c r="Y24">
+        <v>1.25</v>
+      </c>
+      <c r="Z24">
+        <v>0.82</v>
+      </c>
+      <c r="AA24">
         <v>1.53</v>
       </c>
-      <c r="N24">
-        <v>2.35</v>
-      </c>
-      <c r="O24">
-        <v>1.1</v>
-      </c>
-      <c r="P24">
-        <v>6.5</v>
-      </c>
-      <c r="Q24">
-        <v>1.48</v>
-      </c>
-      <c r="R24">
-        <v>2.6</v>
-      </c>
-      <c r="S24">
-        <v>2.31</v>
-      </c>
-      <c r="T24">
-        <v>1.48</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
-      <c r="V24">
+      <c r="AB24">
+        <v>1.44</v>
+      </c>
+      <c r="AC24">
+        <v>1.12</v>
+      </c>
+      <c r="AD24">
+        <v>2.56</v>
+      </c>
+      <c r="AE24">
+        <v>2.2</v>
+      </c>
+      <c r="AF24">
+        <v>7.5</v>
+      </c>
+      <c r="AG24">
+        <v>1.91</v>
+      </c>
+      <c r="AH24">
+        <v>1.4</v>
+      </c>
+      <c r="AI24">
+        <v>2.85</v>
+      </c>
+      <c r="AJ24">
         <v>1.73</v>
       </c>
-      <c r="W24">
-        <v>1.45</v>
-      </c>
-      <c r="X24">
-        <v>1.3</v>
-      </c>
-      <c r="Y24">
-        <v>1.42</v>
-      </c>
-      <c r="Z24">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AA24">
-        <v>1.18</v>
-      </c>
-      <c r="AB24">
-        <v>1.3</v>
-      </c>
-      <c r="AC24">
-        <v>1.44</v>
-      </c>
-      <c r="AD24">
-        <v>2.74</v>
-      </c>
-      <c r="AE24">
-        <v>2.28</v>
-      </c>
-      <c r="AF24">
-        <v>8</v>
-      </c>
-      <c r="AG24">
-        <v>1.85</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL24">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="AM24">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3887,13 +3887,13 @@
         <v>2.83</v>
       </c>
       <c r="J25">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K25">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="M25">
         <v>1.45</v>
@@ -3914,10 +3914,10 @@
         <v>2.98</v>
       </c>
       <c r="S25">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U25">
         <v>1.84</v>
@@ -3959,16 +3959,16 @@
         <v>1.82</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL25">
         <v>1.73</v>
@@ -3977,16 +3977,16 @@
         <v>2</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4021,10 +4021,10 @@
         <v>2.5</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="L26">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="M26">
         <v>1.48</v>
@@ -4045,10 +4045,10 @@
         <v>2.84</v>
       </c>
       <c r="S26">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T26">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="U26">
         <v>1.87</v>
@@ -4090,16 +4090,16 @@
         <v>2.2</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL26">
         <v>2</v>
@@ -4108,16 +4108,16 @@
         <v>1.73</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4140,61 +4140,61 @@
         <v>110</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z27">
         <v>1.31</v>
